--- a/data/trans_bre/P05B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P05B_R-Edad-trans_bre.xlsx
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.573020117131499</v>
+        <v>-1.637536583119198</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7717306789642278</v>
+        <v>-0.7749728715690228</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3872392631074617</v>
+        <v>0.4841493707594513</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3975141136501376</v>
+        <v>-0.3919158616102048</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.48702594243841</v>
+        <v>-0.4897066752141079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5657429016865089</v>
+        <v>-0.5961099067938191</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.08678495203569542</v>
+        <v>-0.2636224689866757</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,24 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.392671552643713</v>
+        <v>2.588342973957345</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.249131328098874</v>
+        <v>2.302475069854417</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.288456904734939</v>
+        <v>4.150504447671102</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.245892911138048</v>
+        <v>3.371936638544914</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.378439987731491</v>
+        <v>1.527749222973035</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.617987716655338</v>
-      </c>
-      <c r="I6" s="6" t="inlineStr"/>
+        <v>5.556412146198789</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>14.44863454804563</v>
+      </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -754,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6312417017156743</v>
+        <v>-0.4924787212927834</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.499790190109846</v>
+        <v>-1.449064702570566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8120240724243573</v>
+        <v>-0.8219144390308929</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.848580595285999</v>
+        <v>-3.127361397527121</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1899755296018093</v>
+        <v>-0.1540699962638316</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6088294167260464</v>
+        <v>-0.5891763754110162</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4439791799827368</v>
+        <v>-0.423522194294813</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8614657938280702</v>
+        <v>-0.8597436117898003</v>
       </c>
     </row>
     <row r="9">
@@ -786,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.043397477546029</v>
+        <v>3.978760359080221</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.512233893995999</v>
+        <v>1.587842645179977</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.106315082282115</v>
+        <v>2.240606004861171</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.299203233347501</v>
+        <v>0.9514127991466663</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.719782660919572</v>
+        <v>1.606589576547661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.52936976493466</v>
+        <v>1.550433065009797</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.595373941452169</v>
+        <v>3.393117961476732</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.095681441709298</v>
+        <v>1.510265655923254</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +833,7 @@
         <v>0.8889521418125261</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.1770354574179481</v>
+        <v>-0.1770354574179483</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6351216946084582</v>
@@ -843,7 +845,7 @@
         <v>0.8212583771162048</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1852546838103439</v>
+        <v>-0.1852546838103442</v>
       </c>
     </row>
     <row r="11">
@@ -854,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08675699736959536</v>
+        <v>-0.005612666208285539</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.672836806579122</v>
+        <v>-1.745378976735761</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4670795032529844</v>
+        <v>-0.3570151733913846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.443042784346281</v>
+        <v>-1.344862846247564</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01041694176448611</v>
+        <v>-0.03722869700069466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5919547524641956</v>
+        <v>-0.6020398385874364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3810446989699677</v>
+        <v>-0.303039057585255</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.8413882594072715</v>
+        <v>-0.7979047385054427</v>
       </c>
     </row>
     <row r="12">
@@ -886,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.953501846029716</v>
+        <v>4.811004098935257</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.503144408735566</v>
+        <v>1.61454766211681</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.349440987903448</v>
+        <v>2.242788160054892</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7264675425427504</v>
+        <v>0.7339887201564514</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.026865944810713</v>
+        <v>1.857824842435216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.226813115738382</v>
+        <v>1.349143980126412</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.993562382034112</v>
+        <v>3.938127313097116</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.964426871530651</v>
+        <v>1.95379050325055</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +933,7 @@
         <v>0.1933959547858962</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.550305934418391</v>
+        <v>0.5503059344183908</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.103771302236101</v>
@@ -943,7 +945,7 @@
         <v>0.1153561665410476</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.9339881262653299</v>
+        <v>0.9339881262653296</v>
       </c>
     </row>
     <row r="14">
@@ -954,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1919766589768879</v>
+        <v>0.02925084272840533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.640989942636363</v>
+        <v>-2.742508042721249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.445934080354653</v>
+        <v>-1.505922376729456</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.353713887696861</v>
+        <v>-0.3301446395290115</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08085056744769023</v>
+        <v>-0.04779306239863815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8084293593227918</v>
+        <v>-0.7976552751759324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.586217549269862</v>
+        <v>-0.6185277759440011</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4458718976022396</v>
+        <v>-0.4240888069131838</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.35833374629197</v>
+        <v>4.239601148411515</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7753905044102456</v>
+        <v>0.5544993666468179</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.774647065241797</v>
+        <v>1.7875239487231</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.410242384760852</v>
+        <v>1.426628858537915</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.852360989256875</v>
+        <v>3.628084867772017</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7497958958836877</v>
+        <v>0.6657061667170767</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.401593608381069</v>
+        <v>2.411590709435935</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7.959425627476469</v>
+        <v>7.643754632883397</v>
       </c>
     </row>
     <row r="16">
@@ -1054,24 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.105730685610145</v>
+        <v>-1.64614836713539</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.310449817637491</v>
+        <v>-1.48721016382043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.364944188125747</v>
+        <v>-1.416327912128006</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.013274721410032</v>
+        <v>-0.9074584597448173</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4228579813822927</v>
-      </c>
-      <c r="H17" s="6" t="inlineStr"/>
-      <c r="I17" s="6" t="inlineStr"/>
+        <v>-0.3420566946513239</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.7697084432657245</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.809423020307093</v>
+      </c>
       <c r="J17" s="6" t="n">
-        <v>-0.520268273970211</v>
+        <v>-0.4752120488619882</v>
       </c>
     </row>
     <row r="18">
@@ -1082,24 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.562534594749886</v>
+        <v>4.172811183525593</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.881451005107025</v>
+        <v>1.663408293896667</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.71049834753209</v>
+        <v>1.845255510901039</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.380486780278328</v>
+        <v>1.484035399001541</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.470786523785918</v>
-      </c>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
+        <v>1.905342260048839</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>4.296106415180859</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>4.048407248114081</v>
+      </c>
       <c r="J18" s="6" t="n">
-        <v>1.858506445630413</v>
+        <v>2.069270045717067</v>
       </c>
     </row>
     <row r="19">
@@ -1123,7 +1133,7 @@
         <v>0.8049114178596627</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09827219409482332</v>
+        <v>0.09827219409482296</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>4.139640143979157</v>
@@ -1135,7 +1145,7 @@
         <v>0.5810206890251294</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.06616651109988139</v>
+        <v>0.06616651109988114</v>
       </c>
     </row>
     <row r="20">
@@ -1146,26 +1156,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.249329121768208</v>
+        <v>2.024517620869516</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.329356767593065</v>
+        <v>-1.319323780410954</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.326787284174912</v>
+        <v>-1.039222774434641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.130855153800254</v>
+        <v>-1.227153832716846</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7630842478051202</v>
+        <v>0.6805295801761166</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.6250859319503085</v>
+        <v>-0.5836851001177116</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5517951225140538</v>
+        <v>-0.5628274547221972</v>
       </c>
     </row>
     <row r="21">
@@ -1176,26 +1186,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.807444801191339</v>
+        <v>7.600843869025295</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.475507741443401</v>
+        <v>1.512246787331987</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.838585495059677</v>
+        <v>2.969873009934989</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.362772761773161</v>
+        <v>1.293351557953811</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>20.32062970140105</v>
+        <v>21.14495632826387</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>6.241092362096138</v>
+        <v>6.773250732234642</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.06543735599926</v>
+        <v>1.668153279246856</v>
       </c>
     </row>
     <row r="22">
@@ -1219,7 +1229,7 @@
         <v>0.8699189266234888</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4236273537979304</v>
+        <v>0.4236273537979306</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1083653031858436</v>
@@ -1231,7 +1241,7 @@
         <v>0.3838190104268229</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5404405235439036</v>
+        <v>0.5404405235439039</v>
       </c>
     </row>
     <row r="23">
@@ -1242,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.205176762228939</v>
+        <v>-3.996848464088779</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.668363373383525</v>
+        <v>-2.043161608054755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.472804807192017</v>
+        <v>-1.903494332059672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6999106995214632</v>
+        <v>-0.6896319885546055</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6435735034137191</v>
+        <v>-0.6261102941089683</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6810392380423795</v>
+        <v>-0.6780400241019334</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.5515616567711977</v>
+        <v>-0.5984680300042389</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.5928998462520279</v>
+        <v>-0.5638566605458092</v>
       </c>
     </row>
     <row r="24">
@@ -1274,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.652840997514988</v>
+        <v>3.087142445832215</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.720866276717079</v>
+        <v>2.672430528883054</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.585068283864391</v>
+        <v>3.655799472135113</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.370325141174033</v>
+        <v>1.44130882985904</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.001123820891066</v>
+        <v>1.281138335176718</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.517258475950053</v>
+        <v>4.154455694179668</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.04401501653881</v>
+        <v>2.909158057900727</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>5.463296225852411</v>
+        <v>5.692729317330201</v>
       </c>
     </row>
     <row r="25">
@@ -1342,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7991386661576906</v>
+        <v>0.8476752713935594</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.6894059397983762</v>
+        <v>-0.6355698515501602</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1201299413133705</v>
+        <v>0.1113377021890571</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.2703614622277874</v>
+        <v>-0.3237933962137145</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2266589256600832</v>
+        <v>0.2437333126441931</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3462573238647885</v>
+        <v>-0.3226618445579236</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06520579562511511</v>
+        <v>0.05170847164757597</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.204784637144054</v>
+        <v>-0.233490271377558</v>
       </c>
     </row>
     <row r="27">
@@ -1374,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.657558711128913</v>
+        <v>2.736719708660925</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5839783797854015</v>
+        <v>0.6364107633655534</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.414248682077779</v>
+        <v>1.431855354552833</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6807525218489222</v>
+        <v>0.6449171813318283</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.06597120349207</v>
+        <v>1.07960332234437</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4386564045153341</v>
+        <v>0.4704112249184417</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.340468522836092</v>
+        <v>1.344346596883397</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8585345668089637</v>
+        <v>0.8050441972166537</v>
       </c>
     </row>
     <row r="28">
